--- a/Bali data/bali_occupancy.xlsx
+++ b/Bali data/bali_occupancy.xlsx
@@ -15178,7 +15178,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Dorm Room:</t>
+          <t>Dorm Room</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15241,7 +15241,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Twin Room:</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15304,7 +15304,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Triple Room:</t>
+          <t>Triple Room</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15367,7 +15367,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Private Room:</t>
+          <t>Private Room</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15497,7 +15497,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Dorm Room:</t>
+          <t>Dorm Room</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -15564,7 +15564,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Twin Room:</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Private Room:</t>
+          <t>Private Room</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/Bali data/bali_occupancy.xlsx
+++ b/Bali data/bali_occupancy.xlsx
@@ -944,7 +944,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -15956,17 +15956,17 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>92%</t>
         </is>
       </c>
     </row>

--- a/Bali data/bali_occupancy.xlsx
+++ b/Bali data/bali_occupancy.xlsx
@@ -14936,17 +14936,17 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>92%</t>
         </is>
       </c>
     </row>
@@ -15251,7 +15251,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -15314,17 +15314,17 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -15641,17 +15641,17 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -15691,7 +15691,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I239" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -15704,17 +15708,17 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -15754,7 +15758,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I240" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -15817,7 +15825,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I241" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -15880,7 +15892,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I242" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -16019,7 +16035,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -16203,12 +16219,12 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -16271,17 +16287,17 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>31%</t>
         </is>
       </c>
     </row>
